--- a/output/hours_today.xlsx
+++ b/output/hours_today.xlsx
@@ -31892,40 +31892,52 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
       </c>
       <c r="I359" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
         <v>0</v>
       </c>
       <c r="L359" t="n">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="M359" t="n">
+        <v>90</v>
       </c>
       <c r="N359" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O359" t="n">
         <v>0</v>
       </c>
       <c r="P359" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q359" t="n">
         <v>0</v>
       </c>
       <c r="R359" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S359" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="T359" t="n">
+        <v>93.33333333333333</v>
       </c>
       <c r="U359" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V359" t="n">
         <v>15</v>
@@ -47228,10 +47240,10 @@
         <v>450</v>
       </c>
       <c r="G536" t="n">
-        <v>23.5</v>
+        <v>15.5</v>
       </c>
       <c r="H536" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I536" t="n">
         <v>7.5</v>
@@ -47246,19 +47258,19 @@
         <v>90</v>
       </c>
       <c r="M536" t="n">
-        <v>282</v>
+        <v>186</v>
       </c>
       <c r="N536" t="n">
-        <v>23.5</v>
+        <v>15.5</v>
       </c>
       <c r="O536" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P536" t="n">
         <v>7.5</v>
       </c>
       <c r="Q536" t="n">
-        <v>68.08510638297872</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="R536" t="n">
         <v>88</v>
@@ -47267,7 +47279,7 @@
         <v>7.333333333333333</v>
       </c>
       <c r="T536" t="n">
-        <v>31.20567375886525</v>
+        <v>47.31182795698924</v>
       </c>
       <c r="U536" t="n">
         <v>0.1666666666666679</v>
@@ -50170,46 +50182,46 @@
         <v>1200</v>
       </c>
       <c r="G570" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H570" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>20</v>
       </c>
       <c r="J570" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>240</v>
       </c>
       <c r="M570" t="n">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="N570" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O570" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P570" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q570" t="n">
-        <v>27.58620689655172</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="R570" t="n">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="S570" t="n">
-        <v>19.16666666666667</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="T570" t="n">
-        <v>66.0919540229885</v>
+        <v>86.50793650793651</v>
       </c>
       <c r="U570" t="n">
         <v>1.833333333333332</v>

--- a/output/hours_today.xlsx
+++ b/output/hours_today.xlsx
@@ -1655,25 +1655,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>36</v>
@@ -1682,13 +1682,13 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="R14" t="n">
         <v>24</v>
@@ -1700,7 +1700,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>17</v>
@@ -2165,25 +2165,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>15</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>180</v>
@@ -2192,13 +2192,13 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>12</v>
@@ -2210,7 +2210,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V20" t="n">
         <v>17</v>
@@ -2788,16 +2788,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="G27" t="n">
         <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M27" t="n">
         <v>96</v>
@@ -2815,13 +2815,13 @@
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="R27" t="n">
         <v>42</v>
@@ -2833,7 +2833,7 @@
         <v>43.75</v>
       </c>
       <c r="U27" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="V27" t="n">
         <v>17</v>
@@ -3144,16 +3144,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="G31" t="n">
         <v>19.5</v>
       </c>
       <c r="H31" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="J31" t="n">
         <v>73</v>
@@ -3162,7 +3162,7 @@
         <v>6.083333333333333</v>
       </c>
       <c r="L31" t="n">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="M31" t="n">
         <v>234</v>
@@ -3171,13 +3171,13 @@
         <v>19.5</v>
       </c>
       <c r="O31" t="n">
-        <v>6.416666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="P31" t="n">
-        <v>13.08333333333333</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.9059829059829</v>
+        <v>14.95726495726496</v>
       </c>
       <c r="R31" t="n">
         <v>157</v>
@@ -3189,7 +3189,7 @@
         <v>67.0940170940171</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="V31" t="n">
         <v>17</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2180</v>
+        <v>2160</v>
       </c>
       <c r="G35" t="n">
         <v>42</v>
       </c>
       <c r="H35" t="n">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>36.33333333333334</v>
+        <v>36</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M35" t="n">
         <v>504</v>
@@ -3527,13 +3527,13 @@
         <v>42</v>
       </c>
       <c r="O35" t="n">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="P35" t="n">
-        <v>36.33333333333334</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.49206349206349</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="R35" t="n">
         <v>233</v>
@@ -3545,7 +3545,7 @@
         <v>46.23015873015873</v>
       </c>
       <c r="U35" t="n">
-        <v>16.91666666666666</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="V35" t="n">
         <v>17</v>
@@ -4010,16 +4010,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1050</v>
+        <v>840</v>
       </c>
       <c r="G41" t="n">
         <v>23.5</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="I41" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="J41" t="n">
         <v>6</v>
@@ -4028,7 +4028,7 @@
         <v>0.5</v>
       </c>
       <c r="L41" t="n">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="M41" t="n">
         <v>282</v>
@@ -4037,13 +4037,13 @@
         <v>23.5</v>
       </c>
       <c r="O41" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="P41" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.40425531914894</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="R41" t="n">
         <v>163</v>
@@ -4055,7 +4055,7 @@
         <v>57.80141843971631</v>
       </c>
       <c r="U41" t="n">
-        <v>4.416666666666666</v>
+        <v>0.9166666666666661</v>
       </c>
       <c r="V41" t="n">
         <v>17</v>
@@ -5985,25 +5985,25 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G64" t="n">
         <v>7.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I64" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M64" t="n">
         <v>90</v>
@@ -6012,13 +6012,13 @@
         <v>7.5</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P64" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R64" t="n">
         <v>66</v>
@@ -6030,7 +6030,7 @@
         <v>73.33333333333333</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="V64" t="n">
         <v>17</v>
@@ -6685,25 +6685,25 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>5</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
       <c r="J72" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M72" t="n">
         <v>60</v>
@@ -6712,13 +6712,13 @@
         <v>5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>42</v>
@@ -6730,7 +6730,7 @@
         <v>70</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V72" t="n">
         <v>17</v>
@@ -6774,25 +6774,25 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G73" t="n">
         <v>8</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J73" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L73" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M73" t="n">
         <v>96</v>
@@ -6863,16 +6863,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>7.5</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I74" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>90</v>
@@ -6890,13 +6890,13 @@
         <v>7.5</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P74" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>17</v>
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="G76" t="n">
         <v>16.5</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I76" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M76" t="n">
         <v>198</v>
@@ -7068,13 +7068,13 @@
         <v>16.5</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P76" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Q76" t="n">
-        <v>12.12121212121212</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="R76" t="n">
         <v>146</v>
@@ -7086,7 +7086,7 @@
         <v>73.73737373737373</v>
       </c>
       <c r="U76" t="n">
-        <v>2.333333333333334</v>
+        <v>1.833333333333334</v>
       </c>
       <c r="V76" t="n">
         <v>17</v>
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>8</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="M78" t="n">
         <v>96</v>
@@ -7234,13 +7234,13 @@
         <v>8</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="P78" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="R78" t="n">
         <v>21</v>
@@ -7252,7 +7252,7 @@
         <v>21.875</v>
       </c>
       <c r="U78" t="n">
-        <v>6.25</v>
+        <v>0.75</v>
       </c>
       <c r="V78" t="n">
         <v>17</v>
@@ -7296,25 +7296,25 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="G79" t="n">
         <v>12.5</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M79" t="n">
         <v>150</v>
@@ -7474,25 +7474,25 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L81" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>48</v>
@@ -7501,13 +7501,13 @@
         <v>4</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="P81" t="n">
-        <v>4</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="R81" t="n">
         <v>34</v>
@@ -7519,7 +7519,7 @@
         <v>70.83333333333334</v>
       </c>
       <c r="U81" t="n">
-        <v>1.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
         <v>17</v>
@@ -7741,25 +7741,25 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="G84" t="n">
         <v>15.5</v>
       </c>
       <c r="H84" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I84" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K84" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="L84" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M84" t="n">
         <v>186</v>
@@ -7919,16 +7919,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1080</v>
+        <v>1110</v>
       </c>
       <c r="G86" t="n">
         <v>20.5</v>
       </c>
       <c r="H86" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M86" t="n">
         <v>246</v>
@@ -7946,13 +7946,13 @@
         <v>20.5</v>
       </c>
       <c r="O86" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P86" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>12.19512195121951</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="R86" t="n">
         <v>166</v>
@@ -7964,7 +7964,7 @@
         <v>67.47967479674797</v>
       </c>
       <c r="U86" t="n">
-        <v>4.166666666666666</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="V86" t="n">
         <v>17</v>
@@ -8530,16 +8530,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="G93" t="n">
         <v>8</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I93" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="M93" t="n">
         <v>96</v>
@@ -8557,13 +8557,13 @@
         <v>8</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P93" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="R93" t="n">
         <v>78</v>
@@ -8575,7 +8575,7 @@
         <v>81.25</v>
       </c>
       <c r="U93" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
         <v>17</v>
@@ -10250,25 +10250,25 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M113" t="n">
         <v>48</v>
@@ -11739,16 +11739,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="G130" t="n">
         <v>24</v>
       </c>
       <c r="H130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I130" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J130" t="n">
         <v>90</v>
@@ -11757,7 +11757,7 @@
         <v>7.5</v>
       </c>
       <c r="L130" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M130" t="n">
         <v>288</v>
@@ -11766,13 +11766,13 @@
         <v>24</v>
       </c>
       <c r="O130" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="Q130" t="n">
-        <v>6.25</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="R130" t="n">
         <v>268</v>
@@ -11784,7 +11784,7 @@
         <v>93.05555555555554</v>
       </c>
       <c r="U130" t="n">
-        <v>0.1666666666666679</v>
+        <v>0.6666666666666679</v>
       </c>
       <c r="V130" t="n">
         <v>17</v>
@@ -13127,16 +13127,16 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="G146" t="n">
         <v>16</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J146" t="n">
         <v>4</v>
@@ -13145,7 +13145,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="L146" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M146" t="n">
         <v>192</v>
@@ -13154,13 +13154,13 @@
         <v>16</v>
       </c>
       <c r="O146" t="n">
-        <v>0.6666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P146" t="n">
-        <v>15.33333333333333</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="Q146" t="n">
-        <v>4.166666666666667</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="R146" t="n">
         <v>152</v>
@@ -13172,7 +13172,7 @@
         <v>79.16666666666666</v>
       </c>
       <c r="U146" t="n">
-        <v>2.666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V146" t="n">
         <v>17</v>
@@ -13827,16 +13827,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="G154" t="n">
         <v>8</v>
       </c>
       <c r="H154" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="M154" t="n">
         <v>96</v>
@@ -13854,13 +13854,13 @@
         <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P154" t="n">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="Q154" t="n">
-        <v>15.625</v>
+        <v>0</v>
       </c>
       <c r="R154" t="n">
         <v>33</v>
@@ -13872,7 +13872,7 @@
         <v>34.375</v>
       </c>
       <c r="U154" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="V154" t="n">
         <v>17</v>
@@ -16651,25 +16651,25 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>750</v>
+        <v>480</v>
       </c>
       <c r="G186" t="n">
         <v>12.5</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I186" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="L186" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M186" t="n">
         <v>150</v>
@@ -16678,13 +16678,13 @@
         <v>12.5</v>
       </c>
       <c r="O186" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P186" t="n">
-        <v>12.5</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="Q186" t="n">
-        <v>0</v>
+        <v>1.333333333333336</v>
       </c>
       <c r="R186" t="n">
         <v>137</v>
@@ -16696,7 +16696,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="U186" t="n">
-        <v>1.083333333333334</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="V186" t="n">
         <v>17</v>
@@ -17262,25 +17262,25 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>480</v>
+        <v>405</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I193" t="n">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L193" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="M193" t="n">
         <v>96</v>
@@ -17289,13 +17289,13 @@
         <v>8</v>
       </c>
       <c r="O193" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="P193" t="n">
-        <v>8</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="Q193" t="n">
-        <v>0</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="R193" t="n">
         <v>72</v>
@@ -17307,7 +17307,7 @@
         <v>75</v>
       </c>
       <c r="U193" t="n">
-        <v>2</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="V193" t="n">
         <v>17</v>
@@ -17440,25 +17440,25 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="G195" t="n">
         <v>32</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I195" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="L195" t="n">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="M195" t="n">
         <v>384</v>
@@ -17467,13 +17467,13 @@
         <v>32</v>
       </c>
       <c r="O195" t="n">
-        <v>0</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="P195" t="n">
-        <v>32</v>
+        <v>30.91666666666667</v>
       </c>
       <c r="Q195" t="n">
-        <v>0</v>
+        <v>3.385416666666666</v>
       </c>
       <c r="R195" t="n">
         <v>355</v>
@@ -17485,7 +17485,7 @@
         <v>92.44791666666666</v>
       </c>
       <c r="U195" t="n">
-        <v>2.416666666666668</v>
+        <v>1.333333333333335</v>
       </c>
       <c r="V195" t="n">
         <v>17</v>
@@ -17618,16 +17618,16 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M197" t="n">
         <v>48</v>
@@ -17645,13 +17645,13 @@
         <v>4</v>
       </c>
       <c r="O197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q197" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R197" t="n">
         <v>48</v>
@@ -18143,46 +18143,46 @@
         <v>1710</v>
       </c>
       <c r="G203" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H203" t="n">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="I203" t="n">
         <v>28.5</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L203" t="n">
         <v>342</v>
       </c>
       <c r="M203" t="n">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="N203" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O203" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="P203" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.724137931034483</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="R203" t="n">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="S203" t="n">
-        <v>24.16666666666667</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="T203" t="n">
-        <v>83.33333333333334</v>
+        <v>69.36936936936937</v>
       </c>
       <c r="U203" t="n">
         <v>4.333333333333332</v>
@@ -19107,25 +19107,25 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="G214" t="n">
         <v>12.5</v>
       </c>
       <c r="H214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I214" t="n">
+        <v>12</v>
+      </c>
+      <c r="J214" t="n">
+        <v>3</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.25</v>
       </c>
-      <c r="I214" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0</v>
-      </c>
       <c r="L214" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M214" t="n">
         <v>150</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="G279" t="n">
         <v>16</v>
       </c>
       <c r="H279" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I279" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -24862,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M279" t="n">
         <v>192</v>
@@ -24871,13 +24871,13 @@
         <v>16</v>
       </c>
       <c r="O279" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P279" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q279" t="n">
-        <v>37.5</v>
+        <v>31.25</v>
       </c>
       <c r="R279" t="n">
         <v>96</v>
@@ -24889,7 +24889,7 @@
         <v>50</v>
       </c>
       <c r="U279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V279" t="n">
         <v>17</v>
@@ -28243,16 +28243,16 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="G318" t="n">
         <v>10.5</v>
       </c>
       <c r="H318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I318" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J318" t="n">
         <v>0</v>
@@ -28261,7 +28261,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M318" t="n">
         <v>126</v>
@@ -28270,13 +28270,13 @@
         <v>10.5</v>
       </c>
       <c r="O318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P318" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q318" t="n">
-        <v>38.09523809523809</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="R318" t="n">
         <v>90</v>
@@ -28688,25 +28688,25 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="G323" t="n">
         <v>8</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I323" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J323" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L323" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M323" t="n">
         <v>96</v>
@@ -31363,16 +31363,16 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J354" t="n">
         <v>0</v>
@@ -31381,7 +31381,7 @@
         <v>0</v>
       </c>
       <c r="L354" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M354" t="n">
         <v>48</v>
@@ -31390,13 +31390,13 @@
         <v>4</v>
       </c>
       <c r="O354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P354" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q354" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R354" t="n">
         <v>33</v>
@@ -31408,7 +31408,7 @@
         <v>68.75</v>
       </c>
       <c r="U354" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="V354" t="n">
         <v>17</v>
@@ -33030,16 +33030,16 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="G373" t="n">
         <v>6</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J373" t="n">
         <v>0</v>
@@ -33048,7 +33048,7 @@
         <v>0</v>
       </c>
       <c r="L373" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M373" t="n">
         <v>72</v>
@@ -33057,13 +33057,13 @@
         <v>6</v>
       </c>
       <c r="O373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P373" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q373" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="R373" t="n">
         <v>30</v>
@@ -33075,7 +33075,7 @@
         <v>41.66666666666667</v>
       </c>
       <c r="U373" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V373" t="n">
         <v>17</v>
@@ -33386,16 +33386,16 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>13</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J377" t="n">
         <v>0</v>
@@ -33404,7 +33404,7 @@
         <v>0</v>
       </c>
       <c r="L377" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M377" t="n">
         <v>156</v>
@@ -33413,13 +33413,13 @@
         <v>13</v>
       </c>
       <c r="O377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P377" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q377" t="n">
-        <v>15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="R377" t="n">
         <v>120</v>
@@ -33431,7 +33431,7 @@
         <v>76.92307692307693</v>
       </c>
       <c r="U377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V377" t="n">
         <v>17</v>
@@ -33641,16 +33641,16 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="G380" t="n">
         <v>16</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I380" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J380" t="n">
         <v>0</v>
@@ -33659,7 +33659,7 @@
         <v>0</v>
       </c>
       <c r="L380" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M380" t="n">
         <v>192</v>
@@ -33668,13 +33668,13 @@
         <v>16</v>
       </c>
       <c r="O380" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P380" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Q380" t="n">
-        <v>18.75</v>
+        <v>15.625</v>
       </c>
       <c r="R380" t="n">
         <v>119</v>
@@ -33686,7 +33686,7 @@
         <v>61.97916666666666</v>
       </c>
       <c r="U380" t="n">
-        <v>3.083333333333334</v>
+        <v>3.583333333333334</v>
       </c>
       <c r="V380" t="n">
         <v>17</v>
@@ -34406,16 +34406,16 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="G389" t="n">
         <v>16</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I389" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J389" t="n">
         <v>0</v>
@@ -34424,7 +34424,7 @@
         <v>0</v>
       </c>
       <c r="L389" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M389" t="n">
         <v>192</v>
@@ -34433,13 +34433,13 @@
         <v>16</v>
       </c>
       <c r="O389" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P389" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q389" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R389" t="n">
         <v>89</v>
@@ -34451,7 +34451,7 @@
         <v>46.35416666666667</v>
       </c>
       <c r="U389" t="n">
-        <v>8.583333333333332</v>
+        <v>0.5833333333333321</v>
       </c>
       <c r="V389" t="n">
         <v>17</v>
@@ -34495,25 +34495,25 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="G390" t="n">
         <v>8</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="I390" t="n">
-        <v>8</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="J390" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K390" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L390" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="M390" t="n">
         <v>96</v>
@@ -34522,13 +34522,13 @@
         <v>8</v>
       </c>
       <c r="O390" t="n">
-        <v>0</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="P390" t="n">
-        <v>8</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="Q390" t="n">
-        <v>0</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="R390" t="n">
         <v>81</v>
@@ -34540,7 +34540,7 @@
         <v>84.375</v>
       </c>
       <c r="U390" t="n">
-        <v>1.25</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="V390" t="n">
         <v>17</v>
@@ -35118,16 +35118,16 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G397" t="n">
         <v>5</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I397" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J397" t="n">
         <v>0</v>
@@ -35136,7 +35136,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M397" t="n">
         <v>60</v>
@@ -35145,13 +35145,13 @@
         <v>5</v>
       </c>
       <c r="O397" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P397" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q397" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R397" t="n">
         <v>54</v>
@@ -35163,7 +35163,7 @@
         <v>90</v>
       </c>
       <c r="U397" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V397" t="n">
         <v>17</v>
@@ -36417,25 +36417,25 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="G412" t="n">
         <v>32</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I412" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J412" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="L412" t="n">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="M412" t="n">
         <v>384</v>
@@ -36444,13 +36444,13 @@
         <v>32</v>
       </c>
       <c r="O412" t="n">
-        <v>0</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="P412" t="n">
-        <v>32</v>
+        <v>27.83333333333334</v>
       </c>
       <c r="Q412" t="n">
-        <v>0</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="R412" t="n">
         <v>257</v>
@@ -36462,7 +36462,7 @@
         <v>66.92708333333334</v>
       </c>
       <c r="U412" t="n">
-        <v>10.58333333333333</v>
+        <v>6.416666666666666</v>
       </c>
       <c r="V412" t="n">
         <v>17</v>
@@ -36939,16 +36939,16 @@
         </is>
       </c>
       <c r="F418" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G418" t="n">
         <v>6</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I418" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J418" t="n">
         <v>0</v>
@@ -36957,7 +36957,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="M418" t="n">
         <v>72</v>
@@ -36966,13 +36966,13 @@
         <v>6</v>
       </c>
       <c r="O418" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P418" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q418" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R418" t="n">
         <v>39</v>
@@ -36984,7 +36984,7 @@
         <v>54.16666666666666</v>
       </c>
       <c r="U418" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="V418" t="n">
         <v>17</v>
@@ -37651,25 +37651,25 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="G426" t="n">
         <v>6.5</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J426" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K426" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M426" t="n">
         <v>78</v>
@@ -37678,13 +37678,13 @@
         <v>6.5</v>
       </c>
       <c r="O426" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P426" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q426" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="R426" t="n">
         <v>61</v>
@@ -37696,7 +37696,7 @@
         <v>78.2051282051282</v>
       </c>
       <c r="U426" t="n">
-        <v>0.916666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="V426" t="n">
         <v>17</v>
@@ -39104,25 +39104,25 @@
         </is>
       </c>
       <c r="F443" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G443" t="n">
         <v>8</v>
       </c>
       <c r="H443" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="I443" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J443" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="K443" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L443" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M443" t="n">
         <v>96</v>
@@ -39131,13 +39131,13 @@
         <v>8</v>
       </c>
       <c r="O443" t="n">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="P443" t="n">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="Q443" t="n">
-        <v>40.625</v>
+        <v>9.375</v>
       </c>
       <c r="R443" t="n">
         <v>57</v>
@@ -39149,7 +39149,7 @@
         <v>59.375</v>
       </c>
       <c r="U443" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V443" t="n">
         <v>17</v>
@@ -39193,25 +39193,25 @@
         </is>
       </c>
       <c r="F444" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="G444" t="n">
         <v>16</v>
       </c>
       <c r="H444" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I444" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J444" t="n">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="K444" t="n">
-        <v>13.58333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="L444" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M444" t="n">
         <v>192</v>
@@ -39220,13 +39220,13 @@
         <v>16</v>
       </c>
       <c r="O444" t="n">
-        <v>2.416666666666666</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="P444" t="n">
-        <v>13.58333333333333</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="Q444" t="n">
-        <v>15.10416666666666</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="R444" t="n">
         <v>163</v>
@@ -39238,7 +39238,7 @@
         <v>84.89583333333334</v>
       </c>
       <c r="U444" t="n">
-        <v>0</v>
+        <v>0.4999999999999991</v>
       </c>
       <c r="V444" t="n">
         <v>17</v>
@@ -39982,16 +39982,16 @@
         </is>
       </c>
       <c r="F453" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="G453" t="n">
         <v>16</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J453" t="n">
         <v>0</v>
@@ -40000,7 +40000,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="M453" t="n">
         <v>192</v>
@@ -40009,13 +40009,13 @@
         <v>16</v>
       </c>
       <c r="O453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P453" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q453" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R453" t="n">
         <v>168</v>
@@ -40027,7 +40027,7 @@
         <v>87.5</v>
       </c>
       <c r="U453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V453" t="n">
         <v>17</v>
@@ -40584,10 +40584,10 @@
         <v>450</v>
       </c>
       <c r="G460" t="n">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I460" t="n">
         <v>7.5</v>
@@ -40602,19 +40602,19 @@
         <v>90</v>
       </c>
       <c r="M460" t="n">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="N460" t="n">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="O460" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P460" t="n">
         <v>7.5</v>
       </c>
       <c r="Q460" t="n">
-        <v>0</v>
+        <v>68.08510638297872</v>
       </c>
       <c r="R460" t="n">
         <v>92</v>
@@ -40623,7 +40623,7 @@
         <v>7.666666666666667</v>
       </c>
       <c r="T460" t="n">
-        <v>100</v>
+        <v>32.62411347517731</v>
       </c>
       <c r="U460" t="n">
         <v>0</v>
@@ -40937,25 +40937,25 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G464" t="n">
         <v>5</v>
       </c>
       <c r="H464" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J464" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K464" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M464" t="n">
         <v>60</v>
@@ -42479,16 +42479,16 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="G482" t="n">
         <v>16</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I482" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J482" t="n">
         <v>0</v>
@@ -42497,7 +42497,7 @@
         <v>0</v>
       </c>
       <c r="L482" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M482" t="n">
         <v>192</v>
@@ -42506,13 +42506,13 @@
         <v>16</v>
       </c>
       <c r="O482" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P482" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Q482" t="n">
-        <v>12.5</v>
+        <v>9.375</v>
       </c>
       <c r="R482" t="n">
         <v>156</v>
@@ -42524,7 +42524,7 @@
         <v>81.25</v>
       </c>
       <c r="U482" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V482" t="n">
         <v>17</v>
@@ -43523,25 +43523,25 @@
         </is>
       </c>
       <c r="F494" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G494" t="n">
         <v>8</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I494" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K494" t="n">
-        <v>0</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="L494" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M494" t="n">
         <v>96</v>
@@ -43550,13 +43550,13 @@
         <v>8</v>
       </c>
       <c r="O494" t="n">
-        <v>0</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="P494" t="n">
-        <v>8</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="Q494" t="n">
-        <v>0</v>
+        <v>14.58333333333334</v>
       </c>
       <c r="R494" t="n">
         <v>82</v>
@@ -43568,7 +43568,7 @@
         <v>85.41666666666666</v>
       </c>
       <c r="U494" t="n">
-        <v>1.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="V494" t="n">
         <v>17</v>
@@ -43612,16 +43612,16 @@
         </is>
       </c>
       <c r="F495" t="n">
-        <v>1430</v>
+        <v>1440</v>
       </c>
       <c r="G495" t="n">
         <v>24</v>
       </c>
       <c r="H495" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
-        <v>23.83333333333333</v>
+        <v>24</v>
       </c>
       <c r="J495" t="n">
         <v>0</v>
@@ -43630,7 +43630,7 @@
         <v>0</v>
       </c>
       <c r="L495" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M495" t="n">
         <v>288</v>
@@ -43639,13 +43639,13 @@
         <v>24</v>
       </c>
       <c r="O495" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P495" t="n">
-        <v>23.83333333333333</v>
+        <v>24</v>
       </c>
       <c r="Q495" t="n">
-        <v>0.6944444444444444</v>
+        <v>0</v>
       </c>
       <c r="R495" t="n">
         <v>292</v>
@@ -43790,16 +43790,16 @@
         </is>
       </c>
       <c r="F497" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="G497" t="n">
         <v>8</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I497" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J497" t="n">
         <v>0</v>
@@ -43808,7 +43808,7 @@
         <v>0</v>
       </c>
       <c r="L497" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="M497" t="n">
         <v>96</v>
@@ -43817,13 +43817,13 @@
         <v>8</v>
       </c>
       <c r="O497" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P497" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q497" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="R497" t="n">
         <v>60</v>
@@ -43835,7 +43835,7 @@
         <v>62.5</v>
       </c>
       <c r="U497" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="V497" t="n">
         <v>17</v>
@@ -44846,17 +44846,17 @@
         </is>
       </c>
       <c r="F509" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G509" t="n">
         <v>3.5</v>
       </c>
       <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="n">
         <v>3.5</v>
       </c>
-      <c r="I509" t="n">
-        <v>0</v>
-      </c>
       <c r="J509" t="n">
         <v>0</v>
       </c>
@@ -44864,7 +44864,7 @@
         <v>0</v>
       </c>
       <c r="L509" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M509" t="n">
         <v>42</v>
@@ -44873,13 +44873,13 @@
         <v>3.5</v>
       </c>
       <c r="O509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" t="n">
         <v>3.5</v>
       </c>
-      <c r="P509" t="n">
-        <v>0</v>
-      </c>
       <c r="Q509" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R509" t="n">
         <v>42</v>
@@ -46246,25 +46246,25 @@
         </is>
       </c>
       <c r="F525" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G525" t="n">
         <v>8</v>
       </c>
       <c r="H525" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J525" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K525" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M525" t="n">
         <v>96</v>
@@ -46273,13 +46273,13 @@
         <v>8</v>
       </c>
       <c r="O525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P525" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q525" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R525" t="n">
         <v>72</v>
@@ -46291,7 +46291,7 @@
         <v>75</v>
       </c>
       <c r="U525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V525" t="n">
         <v>17</v>
@@ -48791,25 +48791,25 @@
         </is>
       </c>
       <c r="F554" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="G554" t="n">
         <v>16</v>
       </c>
       <c r="H554" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J554" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M554" t="n">
         <v>192</v>
@@ -48818,13 +48818,13 @@
         <v>16</v>
       </c>
       <c r="O554" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P554" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Q554" t="n">
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
       <c r="R554" t="n">
         <v>171</v>
@@ -48836,7 +48836,7 @@
         <v>89.0625</v>
       </c>
       <c r="U554" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="V554" t="n">
         <v>17</v>
@@ -49325,16 +49325,16 @@
         </is>
       </c>
       <c r="F560" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="G560" t="n">
         <v>14</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I560" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J560" t="n">
         <v>0</v>
@@ -49343,7 +49343,7 @@
         <v>0</v>
       </c>
       <c r="L560" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M560" t="n">
         <v>168</v>
@@ -49352,13 +49352,13 @@
         <v>14</v>
       </c>
       <c r="O560" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P560" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Q560" t="n">
-        <v>21.42857142857143</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="R560" t="n">
         <v>112</v>
@@ -49370,7 +49370,7 @@
         <v>66.66666666666667</v>
       </c>
       <c r="U560" t="n">
-        <v>1.666666666666666</v>
+        <v>2.166666666666666</v>
       </c>
       <c r="V560" t="n">
         <v>17</v>
@@ -50393,25 +50393,25 @@
         </is>
       </c>
       <c r="F572" t="n">
-        <v>1230</v>
+        <v>960</v>
       </c>
       <c r="G572" t="n">
         <v>20.5</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I572" t="n">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="J572" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K572" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="L572" t="n">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="M572" t="n">
         <v>246</v>
@@ -50420,13 +50420,13 @@
         <v>20.5</v>
       </c>
       <c r="O572" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P572" t="n">
-        <v>20.5</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="Q572" t="n">
-        <v>0</v>
+        <v>0.8130081300813022</v>
       </c>
       <c r="R572" t="n">
         <v>244</v>
@@ -50438,7 +50438,7 @@
         <v>99.1869918699187</v>
       </c>
       <c r="U572" t="n">
-        <v>0.1666666666666679</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="V572" t="n">
         <v>17</v>
@@ -51081,25 +51081,25 @@
         </is>
       </c>
       <c r="F580" t="n">
-        <v>1530</v>
+        <v>1500</v>
       </c>
       <c r="G580" t="n">
         <v>32</v>
       </c>
       <c r="H580" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I580" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="J580" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K580" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L580" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M580" t="n">
         <v>384</v>
@@ -52772,25 +52772,25 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G599" t="n">
         <v>7.5</v>
       </c>
       <c r="H599" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="I599" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J599" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K599" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L599" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M599" t="n">
         <v>90</v>
